--- a/biology/Médecine/Notker_le_Physicien/Notker_le_Physicien.xlsx
+++ b/biology/Médecine/Notker_le_Physicien/Notker_le_Physicien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Notker le Physicien (Notker Physicus, ✝972), également surnommé piperis granum (grain de poivre) en raison de son attachement pour la discipline monastique, était un moine de l'abbaye de Saint-Gall, par ailleurs médecin et peintre. Peu d'éléments de sa vie sont connus, hormis qu'il devint cellarius en 956 ou 957, et hospitarius en 965.
 L'abbé Ekkehard IV loue plusieurs de ses peintures, et mentionne des antiennes et des hymnes de sa composition (notamment l'hymne Rector aeterni metuende secli).
@@ -513,10 +525,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Notker » (voir la liste des auteurs).
-(de) [1]
+(de) 
 Notker le Physicien, dans le Dictionnaire historique de la Suisse.
  Portail du monachisme   Portail de la Suisse   Portail de la médecine   Portail du haut Moyen Âge                  </t>
         </is>
